--- a/biology/Botanique/Burseraceae/Burseraceae.xlsx
+++ b/biology/Botanique/Burseraceae/Burseraceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Burséracées regroupe des plantes dicotylédones. Selon Watson &amp; Dallwitz elle comprend 500 espèces réparties en 17 genres.
 Ce sont des arbres ou des arbustes résineux des régions subtropicales à tropicales.
@@ -512,10 +524,12 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Certaines espèces du genre Boswellia, originaires d'Arabie, d'Afrique de l'Est et d'Inde,  sont à l'origine de l'encens, et le genre Commiphora contient l'espèce qui donne la myrrhe, Commiphora myrrha, l'arbre à myrrhe.
-Des médecines traditionnelles utilisent l'inhalation de la fumée produite par la combustion d'oléorésines récoltées sur d'autres arbres de cette famille (c'est le cas du breu utilisé par les amérindiens amazoniens par exemple)[1] notamment utilisée contre les maux de tête[2].</t>
+Des médecines traditionnelles utilisent l'inhalation de la fumée produite par la combustion d'oléorésines récoltées sur d'autres arbres de cette famille (c'est le cas du breu utilisé par les amérindiens amazoniens par exemple) notamment utilisée contre les maux de tête.</t>
         </is>
       </c>
     </row>
@@ -543,9 +557,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Bursera, nommé en hommage au médecin et botaniste germano-danois Joachim Burser (en) (1583-1639), qui en 1625 fut professeur à l’Académie de Soro (Danemark). Ses collections botaniques, qui furent utilisées par le botaniste suédois Carl von Linné, sont conservées au Musée du Jardin Botanique d’Uppsala[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Bursera, nommé en hommage au médecin et botaniste germano-danois Joachim Burser (en) (1583-1639), qui en 1625 fut professeur à l’Académie de Soro (Danemark). Ses collections botaniques, qui furent utilisées par le botaniste suédois Carl von Linné, sont conservées au Musée du Jardin Botanique d’Uppsala.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Angiosperm Phylogeny Website                        (11 décembre 2016)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Angiosperm Phylogeny Website                        (11 décembre 2016) :
 Ambilobea Thulin et al.
 Aucoumea Pierre
 Beiselia (es) Forman
@@ -595,7 +613,7 @@
 Scutinanthe (es) Thwaites
 Tetragastris Gaertn.
 Triomma (es) Hook.f.
-Selon NCBI  (11 décembre 2016)[5] :
+Selon NCBI  (11 décembre 2016) :
 Ambilobea
 Aucoumea
 Beiselia
@@ -613,7 +631,7 @@
 Tetragastris
 Trattinnickia
 Triomma
-Selon DELTA Angio           (11 décembre 2016)[6] :
+Selon DELTA Angio           (11 décembre 2016) :
 Aucoumea
 Beiselia
 Boswellia
@@ -631,7 +649,7 @@
 Tetragastris
 Trattinnickia
 Triomma
-Selon ITIS      (11 décembre 2016)[7] :
+Selon ITIS      (11 décembre 2016) :
 Boswellia Roxb. ex Colebr.
 Bursera Jacq. ex L.
 Canarium L.
@@ -666,9 +684,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (22 juin 2010)[8] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (22 juin 2010) :
 genre Ambilobea
 Ambilobea madagascariensis
 genre Aucoumea
